--- a/quantitative_value_strategy.xlsx
+++ b/quantitative_value_strategy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Ticker</t>
   </si>
@@ -212,6 +212,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="$0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -221,20 +225,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0A0A23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -264,11 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,2248 +578,2263 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="3" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>3.51</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>569</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.43</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.09072580645161291</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.0456</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>0.0625</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.0934</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>0.002016129032258064</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.2702787428204029</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>0.01814516129032258</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.09487816837195305</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>0.004032258064516129</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>0.03548387096774194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>24.1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>82</v>
+      </c>
+      <c r="D3" s="3">
         <v>-1.36</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.08064516129032258</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.8347</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0.09475806451612902</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.2624</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0.0282258064516129</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-1.376320203684749</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>0.01612903225806452</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.262407761464906</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>0.006048387096774193</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>0.04516129032258064</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>12.48</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3">
+        <v>160</v>
+      </c>
+      <c r="D4" s="3">
         <v>2.91</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.09475806451612902</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-1.83</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.06048387096774193</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.1514</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>0.01209677419354839</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>4.422553261780862</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>0.07459677419354838</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.57842521769955</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>0.02016129032258064</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>0.05241935483870967</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>30.98</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
         <v>4.32</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.1008064516129032</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.6045</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.07862903225806452</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.2552</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.02016129032258064</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1.15962264721735</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0.02016129032258064</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.8322638654058701</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>0.04233870967741935</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>0.05241935483870967</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>22.6</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3">
         <v>-5.89</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.06451612903225806</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.9172</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.1149193548387097</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.1419</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.01008064516129032</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>-5.959769586879433</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0.01411290322580645</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>1.120146274040064</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>0.07459677419354838</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>0.05564516129032258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3">
+        <v>133</v>
+      </c>
+      <c r="D7" s="3">
         <v>-8.82</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.05040322580645161</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.696</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>0.08669354838709677</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.3289</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.04637096774193548</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>5.104743021276596</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>0.09274193548387095</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.9427226797642436</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>0.05241935483870967</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>0.0657258064516129</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>41.53</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3">
         <v>6.61</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.1310483870967742</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.428</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0.06854838709677419</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.6089</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.1008064516129032</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>3.631483057618726</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>0.04637096774193548</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.6424933788217867</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>0.02217741935483871</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>0.07379032258064516</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>18.98</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>105</v>
+      </c>
+      <c r="D9" s="3">
         <v>-20.3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0.03225806451612903</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.5672</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>0.07459677419354838</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.1193</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>0.008064516129032258</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>7.525757711229947</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>0.1854838709677419</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>1.084553554254007</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>0.07056451612903225</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>0.07419354838709677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>29.66</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3">
         <v>5.48</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.1149193548387097</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.9868</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.1350806451612903</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.6143</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.1028225806451613</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>3.442367588965517</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>0.03830645161290323</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.8044989046483141</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>0.03830645161290323</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>0.08588709677419354</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>39.69</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
         <v>9.92</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.1995967741935484</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.4516</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>0.07056451612903225</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.7197</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>0.1229838709677419</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>2.90105025036966</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>0.02620967741935484</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.7545341955014604</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>0.03225806451612903</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>0.09032258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>41</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3">
         <v>5.09</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.1108870967741935</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>1.72</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.2983870967741935</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.2603</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.02419354838709677</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>3.185712485210905</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>0.03427419354838709</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.4868347670191023</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>0.01411290322580645</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>0.09637096774193547</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>50.19</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3">
         <v>6.96</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>0.1391129032258064</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>1.06</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>0.1512096774193548</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.8091</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0.1451612903225806</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>4.175293046682</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>0.06048387096774193</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.8090817037941878</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>0.04032258064516129</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>0.107258064516129</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>26.75</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3">
         <v>6.07</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.1189516129032258</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.587</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>0.07661290322580645</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>1.13</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>0.2237903225806452</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>3.740683347710487</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>0.04838709677419354</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>1.198732664205245</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>0.09072580645161291</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>0.1116935483870968</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>22.44</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="3">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3">
         <v>-7.9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>0.0564516129032258</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>1.39</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>0.2056451612903226</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0.3215</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>0.04233870967741935</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>4.246979632229085</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>0.06451612903225806</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>2.413487787172942</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>0.1915322580645161</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>0.1120967741935484</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>51.26</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
         <v>8.880000000000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.1875</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>1.14</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>0.1643145161290323</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>0.2761</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>0.03427419354838709</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>5.652403712383469</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>0.1189516129032258</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>0.9615887219492398</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>0.05846774193548387</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>0.1127016129032258</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>84.37</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="3">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
         <v>-16.87</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.03629032258064516</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.6443</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>0.08064516129032258</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.4669</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>0.07459677419354838</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>6.647543190678785</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>0.1612903225806452</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>2.940005114524493</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>0.2116935483870968</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>97.12</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
         <v>7.44</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0.1532258064516129</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.678</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>0.08266129032258064</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>0.8306</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>0.1512096774193548</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>5.521222645373134</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>0.1108870967741935</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>1.051840874747647</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>0.06653225806451613</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>35.65</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="3">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3">
         <v>3.71</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0.09677419354838708</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>1.07</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>0.1532258064516129</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>1.11</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.21875</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>2.791232334227468</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>0.02419354838709677</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>1.162130236989055</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>0.07862903225806452</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>0.1143145161290322</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>42.1</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="3">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3">
         <v>4.41</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>0.1028225806451613</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>1.05</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>0.1471774193548387</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>1.14</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0.2278225806451613</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>3.108844083238313</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>0.03024193548387097</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>1.16864820445778</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>0.08266129032258064</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>0.1181451612903226</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>10.56</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="3">
+        <v>189</v>
+      </c>
+      <c r="D21" s="3">
         <v>7.04</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.1431451612903226</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.863</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>0.1008064516129032</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>1.03</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>0.1935483870967742</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>4.885085790419161</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>0.08870967741935484</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>1.104435009476534</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>0.07258064516129031</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>0.119758064516129</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>12.25</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="3">
+        <v>163</v>
+      </c>
+      <c r="D22" s="3">
         <v>11.89</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>0.2520161290322581</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>1.1</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>0.1592741935483871</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.2824</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>0.03629032258064516</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>3.161626256442436</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>0.03225806451612903</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>1.481349994786154</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>0.125</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>6.28</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="3">
+        <v>318</v>
+      </c>
+      <c r="D23" s="3">
         <v>7.42</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.1512096774193548</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>1.3</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>0.1875</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.4454</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>0.06754032258064516</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>6.337258430654878</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>0.1522177419354839</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>0.9847279444542364</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>0.06149193548387096</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>0.123991935483871</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>61.53</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="3">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3">
         <v>10.31</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0.2217741935483871</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>1.04</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>0.1421370967741935</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.8642</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>0.1532258064516129</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>4.12375946969697</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>0.05846774193548387</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>0.8641972613613812</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>0.04435483870967742</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>0.123991935483871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>6.74</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="3">
+        <v>296</v>
+      </c>
+      <c r="D25" s="3">
         <v>7.97</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>0.1653225806451613</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>1.3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>0.1875</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.4454</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>0.06754032258064516</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>6.337258430654878</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>0.1522177419354839</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>0.9847279444542364</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>0.06149193548387096</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>0.1268145161290322</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>129.6</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3">
         <v>4.46</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>0.1048387096774193</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1.78</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>0.3084677419354838</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.2926</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>0.03830645161290323</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>2.977053824954401</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>0.0282258064516129</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>2.102803458611804</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>0.1713709677419355</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>0.1302419354838709</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>64.29000000000001</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="3">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
         <v>12.29</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>0.2681451612903226</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0.9809</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>0.1320564516129032</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>0.9441000000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>0.1703629032258064</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>3.936331258037923</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>0.05443548387096774</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>0.9440657383510183</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>0.05443548387096774</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>0.1358870967741935</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>29.61</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="3">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3">
         <v>6.84</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>0.1350806451612903</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>0.6853</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>0.0846774193548387</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>1.28</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>0.2711693548387096</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>4.532120269239711</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>0.07862903225806452</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>1.359177859917024</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>0.1149193548387097</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>0.1368951612903226</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>36.13</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="3">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3">
         <v>5.68</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>0.1169354838709677</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>0.9772</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>0.1290322580645161</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>0.7203000000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>0.125</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>3.907207032126334</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>0.05241935483870967</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>4.072678339394919</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>0.2943548387096774</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>0.1435483870967742</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>112.13</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="3">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3">
         <v>4.83</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>0.1068548387096774</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>1.67</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>0.2842741935483871</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>0.3235</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>0.04435483870967742</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>3.854256337693771</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>0.05040322580645161</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>3.182475743623906</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
         <v>0.2358870967741935</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>0.1443548387096774</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>14.77</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="3">
+        <v>135</v>
+      </c>
+      <c r="D31" s="3">
         <v>-12.31</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>0.04032258064516129</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1.05</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>0.1471774193548387</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.946</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>0.1733870967741935</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>5.580438179584077</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>0.1169354838709677</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>3.542795072194993</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <v>0.2580645161290323</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>0.1471774193548387</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>114.77</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="3">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3">
         <v>-11.06</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>0.04233870967741935</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>2.22</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>0.3951612903225806</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>0.5494</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>0.09072580645161291</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>7.7002158221709</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>0.1975806451612903</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>0.5493910849322593</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>0.01814516129032258</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>0.1487903225806451</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>37.28</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="3">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3">
         <v>-6.75</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>0.06048387096774193</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>0.947</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>0.1229838709677419</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>0.4573</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>0.07056451612903225</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>6.161098575348034</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <v>0.1491935483870968</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>4.827338461783439</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="4">
         <v>0.3407258064516129</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="4">
         <v>0.1487903225806451</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>5.07</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="3">
+        <v>394</v>
+      </c>
+      <c r="D34" s="3">
         <v>1.83</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>0.09274193548387095</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>0.08260000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>0.06451612903225806</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>0.095</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>0.004032258064516129</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>9.501062216209554</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <v>0.2681451612903226</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>4.414662163616194</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="4">
         <v>0.3165322580645161</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="4">
         <v>0.1491935483870968</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>26.83</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="3">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3">
         <v>11.61</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>0.2479838709677419</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>-11.63</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>0.04032258064516129</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>0.4772</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>0.07862903225806452</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>7.570085097160604</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>0.1875</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>3.026154439833289</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="4">
         <v>0.2258064516129032</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>0.1560483870967742</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>65.3</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="3">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3">
         <v>8.84</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>0.1854838709677419</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>0.9381</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>0.1189516129032258</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>1.26</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>0.2580645161290323</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>5.755402302235717</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="4">
         <v>0.125</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>1.263593657799055</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="4">
         <v>0.1008064516129032</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="4">
         <v>0.1576612903225806</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>10.16</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="3">
+        <v>196</v>
+      </c>
+      <c r="D37" s="3">
         <v>6.55</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>0.1290322580645161</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>0.9094</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>0.1108870967741935</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>1.53</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>0.3387096774193548</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>4.82470423820371</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>0.0846774193548387</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>1.588931103204372</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <v>0.1350806451612903</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
         <v>0.1596774193548387</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>70.94</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="3">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3">
         <v>11.42</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>0.2399193548387097</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>1.57</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>0.2620967741935484</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>0.9218</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>0.1673387096774194</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>4.82189113035754</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>0.08266129032258064</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>0.9217990133729569</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="4">
         <v>0.04838709677419354</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="4">
         <v>0.1600806451612903</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>7.08</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="3">
+        <v>282</v>
+      </c>
+      <c r="D39" s="3">
         <v>-9.029999999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>0.04838709677419354</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>0.8984</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>0.1068548387096774</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>0.3485</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>0.05040322580645161</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>11.11109292649098</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <v>0.3649193548387097</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>3.36600756302521</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="4">
         <v>0.2459677419354838</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="4">
         <v>0.1633064516129032</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>127.02</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="3">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3">
         <v>13.19</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>0.2933467741935484</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>1.34</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>0.1975806451612903</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>0.5931999999999999</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>0.09475806451612902</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>7.651861867153951</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>0.1915322580645161</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>0.9292278897600441</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="4">
         <v>0.05040322580645161</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="4">
         <v>0.1655241935483871</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>27.02</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="3">
+        <v>74</v>
+      </c>
+      <c r="D41" s="3">
         <v>7.79</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>0.1633064516129032</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>0.8419</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>0.09677419354838708</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>1.44</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>0.3064516129032258</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>6.075565465055057</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>0.1451612903225806</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>1.479237892043888</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <v>0.1229838709677419</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="4">
         <v>0.1669354838709677</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>35.98</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="3">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3">
         <v>7.74</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>0.1612903225806452</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>2.84</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>0.501008064516129</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>0.4124</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>0.06048387096774193</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>5.132375220994475</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <v>0.09475806451612902</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>0.6665541930507471</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="4">
         <v>0.02620967741935484</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="4">
         <v>0.16875</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>148.52</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="3">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>5.32</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>0.1129032258064516</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>2.32</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>0.4173387096774194</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>0.3781</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>0.05443548387096774</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>3.595886316221374</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>0.04233870967741935</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>3.137139529157128</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="4">
         <v>0.2318548387096774</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="4">
         <v>0.1717741935483871</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>24.99</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="3">
+        <v>80</v>
+      </c>
+      <c r="D44" s="3">
         <v>7.12</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>0.1451612903225806</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>1.08</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>0.15625</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>1.52</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>0.3356854838709677</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>5.205462552926903</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>0.09677419354838708</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>1.62939428814203</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="4">
         <v>0.1431451612903226</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="4">
         <v>0.1754032258064516</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>28.81</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="3">
+        <v>69</v>
+      </c>
+      <c r="D45" s="3">
         <v>12.36</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>0.2741935483870968</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>1.42</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>0.2167338709677419</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>0.9888</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>0.186491935483871</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>5.569669591811024</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>0.1139112903225806</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>1.18579098464427</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <v>0.0877016129032258</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <v>0.1758064516129032</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>244.07</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="3">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3">
         <v>11.99</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>0.2560483870967742</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>-29.89</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>0.02419354838709677</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>1.11</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>0.21875</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>8.684864989844829</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>0.2338709677419355</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>1.726453539405685</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="4">
         <v>0.1512096774193548</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="4">
         <v>0.1768145161290323</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>42.15</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="3">
+        <v>47</v>
+      </c>
+      <c r="D47" s="3">
         <v>12.32</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>0.2711693548387096</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>0.9127</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>0.1129032258064516</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>1.21</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>0.2439516129032258</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>7.115010452699784</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>0.1733870967741935</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>1.214290921007041</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="4">
         <v>0.09274193548387095</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="4">
         <v>0.1788306451612903</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>75.59</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="3">
+        <v>26</v>
+      </c>
+      <c r="D48" s="3">
         <v>6.25</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>0.1209677419354839</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>1.67</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>0.2842741935483871</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>0.9611</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>0.1794354838709677</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>4.501551659326171</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <v>0.07661290322580645</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>3.324534925647892</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="4">
         <v>0.2399193548387097</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="4">
         <v>0.180241935483871</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>39.97</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="3">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3">
         <v>11.62</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>0.25</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>1.24</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>0.1743951612903226</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>0.5541</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>0.09274193548387095</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>5.347633406708596</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <v>0.1048387096774193</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>3.915905948725821</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="4">
         <v>0.2802419354838709</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="4">
         <v>0.1804435483870968</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>111.82</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="3">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3">
         <v>14.3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>0.3306451612903226</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>1.86</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>0.3306451612903226</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>0.7028</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>0.1169354838709677</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>4.309190441073745</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <v>0.06653225806451613</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>1.029034348727481</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="4">
         <v>0.06451612903225806</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="4">
         <v>0.1818548387096774</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>313.02</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
         <v>13.33</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>0.3024193548387096</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0.9809</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>0.1320564516129032</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>1.14</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>0.2278225806451613</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>6.930975607534063</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>0.1673387096774194</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>1.167154807679762</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="4">
         <v>0.08064516129032258</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="4">
         <v>0.1820564516129032</v>
       </c>
     </row>
